--- a/README_Sample_Data.xlsx
+++ b/README_Sample_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daurin/GitRepos/HyperCP/Data/Sample_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daurin/GitRepos/HyperCP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A256318-DF43-8145-91C9-EEF77AA51AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ACF65F-82F2-0046-BE8F-19D234F9E5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37940" yWindow="10680" windowWidth="42100" windowHeight="13840" xr2:uid="{43498CA6-A785-6C4D-A107-6504C485FA78}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33660" windowHeight="18340" xr2:uid="{43498CA6-A785-6C4D-A107-6504C485FA78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>KORUS_KR2016_NASA_20160320_060000.RAW</t>
   </si>
@@ -140,10 +140,28 @@
     <t>Autonomous 38-minute file.</t>
   </si>
   <si>
-    <t>Autonomous 27-minute file matched to TriOS FICE22 stations.</t>
-  </si>
-  <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>VIIRS_Validation</t>
+  </si>
+  <si>
+    <t>VIIRS2024</t>
+  </si>
+  <si>
+    <t>sample_DALEC.cfg</t>
+  </si>
+  <si>
+    <t>VIIRS2024_DALEC_Ancillary.sb</t>
+  </si>
+  <si>
+    <t>DALEC_12_2024-05-19_232814Z.TXT</t>
+  </si>
+  <si>
+    <t>Autonomious 10-minute file.</t>
+  </si>
+  <si>
+    <t>Autonomous 27-minute file matched in time to TriOS FICE22 stations. Min/max rotator: -126/+42</t>
   </si>
 </sst>
 </file>
@@ -251,9 +269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -263,6 +278,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,7 +598,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,16 +614,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
@@ -619,33 +637,33 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
@@ -663,15 +681,15 @@
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
@@ -693,11 +711,11 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
@@ -722,8 +740,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
@@ -733,39 +751,42 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
